--- a/BLL/Resources/IRFC_Template_v1_2.xlsx
+++ b/BLL/Resources/IRFC_Template_v1_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="13" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="87">
   <si>
     <t>Chain New</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>StructureHeight</t>
-  </si>
-  <si>
-    <t>InstallationType</t>
   </si>
   <si>
     <t>RF_Engineer</t>
@@ -1866,27 +1863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1935,11 +1911,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,6 +1948,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2243,13 +2240,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>527803</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>42734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2546,10 +2543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2590,81 +2587,81 @@
       <c r="B3" s="6"/>
       <c r="D3" s="1"/>
       <c r="E3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="56" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="73"/>
       <c r="M3" s="74"/>
       <c r="N3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="L4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="37" t="s">
+      <c r="N4" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="33"/>
       <c r="D5" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="60"/>
       <c r="F5" s="34"/>
@@ -2685,7 +2682,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="33"/>
       <c r="D6" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="32"/>
@@ -2701,12 +2698,12 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="33"/>
       <c r="D7" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="32"/>
@@ -2722,12 +2719,12 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="33"/>
       <c r="D8" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="32"/>
@@ -2743,12 +2740,12 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="33"/>
       <c r="D9" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="32"/>
@@ -2764,12 +2761,12 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="33"/>
       <c r="D10" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="46"/>
@@ -2790,7 +2787,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="33"/>
       <c r="D11" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="46"/>
@@ -2811,7 +2808,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="33"/>
       <c r="D12" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="46"/>
@@ -2832,7 +2829,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="33"/>
       <c r="D13" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="49"/>
@@ -2854,47 +2851,40 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2912,7 +2902,7 @@
           <x14:formula1>
             <xm:f>DataValidation!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2940,23 +2930,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -2968,164 +2958,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -3145,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -3170,9 +3160,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -3189,9 +3179,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3208,9 +3198,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3227,9 +3217,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3246,7 +3236,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -3265,7 +3255,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -3284,7 +3274,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -3303,9 +3293,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3322,9 +3312,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3341,9 +3331,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3360,9 +3350,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3379,7 +3369,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3388,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -3417,9 +3407,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3436,9 +3426,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3455,9 +3445,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3474,9 +3464,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3493,9 +3483,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3512,9 +3502,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3531,9 +3521,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3550,9 +3540,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3569,9 +3559,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3590,7 +3580,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3607,23 +3597,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3633,21 +3623,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3657,21 +3647,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3681,21 +3671,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3706,6 +3696,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -3722,17 +3723,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -3769,37 +3759,37 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
       <c r="A4" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.8">
       <c r="A5" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.8">
       <c r="A6" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="13.8">
       <c r="A7" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.8">
       <c r="A8" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3814,7 +3804,7 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -3827,23 +3817,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -3855,164 +3845,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="70" t="s">
         <v>4</v>
@@ -4057,9 +4047,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -4076,9 +4066,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4095,9 +4085,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4114,9 +4104,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4133,7 +4123,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -4152,7 +4142,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -4171,7 +4161,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4190,9 +4180,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4209,9 +4199,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4228,9 +4218,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4247,9 +4237,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4266,7 +4256,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -4285,7 +4275,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -4304,9 +4294,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4323,9 +4313,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -4342,9 +4332,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -4361,9 +4351,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -4380,9 +4370,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -4399,9 +4389,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -4418,9 +4408,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -4437,9 +4427,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4456,9 +4446,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4477,7 +4467,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4494,23 +4484,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -4520,21 +4510,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -4544,21 +4534,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -4568,21 +4558,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -4593,6 +4583,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A34:A37"/>
@@ -4609,17 +4610,6 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="26" priority="3">
@@ -4661,23 +4651,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -4689,164 +4679,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -4891,9 +4881,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -4910,9 +4900,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4929,9 +4919,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4948,9 +4938,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4967,7 +4957,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -4986,7 +4976,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -5005,7 +4995,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5024,9 +5014,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5043,9 +5033,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5062,9 +5052,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5081,9 +5071,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5100,7 +5090,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -5119,7 +5109,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -5138,9 +5128,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5157,9 +5147,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5176,9 +5166,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5195,9 +5185,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5214,9 +5204,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -5233,9 +5223,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -5252,9 +5242,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -5271,9 +5261,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -5290,9 +5280,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -5311,7 +5301,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5328,23 +5318,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -5354,21 +5344,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -5378,21 +5368,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -5402,21 +5392,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -5427,6 +5417,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -5443,17 +5444,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="23" priority="3">
@@ -5495,23 +5485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -5523,164 +5513,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -5700,7 +5690,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -5725,9 +5715,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -5744,9 +5734,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5763,9 +5753,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5782,9 +5772,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5801,7 +5791,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -5820,7 +5810,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -5839,7 +5829,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5858,9 +5848,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5877,9 +5867,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5896,9 +5886,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5915,9 +5905,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5934,7 +5924,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5943,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -5972,9 +5962,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5991,9 +5981,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -6010,9 +6000,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -6029,9 +6019,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -6048,9 +6038,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -6067,9 +6057,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -6086,9 +6076,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -6105,9 +6095,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6124,9 +6114,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -6145,7 +6135,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -6162,23 +6152,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -6188,21 +6178,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -6212,21 +6202,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -6236,21 +6226,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -6261,6 +6251,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -6277,17 +6278,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="20" priority="3">
@@ -6329,23 +6319,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -6357,164 +6347,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -6534,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -6559,9 +6549,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -6578,9 +6568,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -6597,9 +6587,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6616,9 +6606,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6635,7 +6625,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -6654,7 +6644,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -6673,7 +6663,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -6692,9 +6682,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6711,9 +6701,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6730,9 +6720,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6749,9 +6739,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -6768,7 +6758,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -6787,7 +6777,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -6806,9 +6796,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6825,9 +6815,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -6844,9 +6834,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -6863,9 +6853,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -6882,9 +6872,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -6901,9 +6891,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -6920,9 +6910,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -6939,9 +6929,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6958,9 +6948,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -6979,7 +6969,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -6996,23 +6986,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -7022,21 +7012,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -7046,21 +7036,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -7070,21 +7060,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -7095,6 +7085,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -7111,17 +7112,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="17" priority="3">
@@ -7163,23 +7153,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -7191,164 +7181,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7358,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -7393,9 +7383,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -7412,9 +7402,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7431,9 +7421,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7450,9 +7440,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7469,7 +7459,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -7488,7 +7478,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +7497,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -7526,9 +7516,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7545,9 +7535,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7564,9 +7554,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7583,9 +7573,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7602,7 +7592,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -7621,7 +7611,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -7640,9 +7630,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7659,9 +7649,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -7678,9 +7668,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -7697,9 +7687,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -7716,9 +7706,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -7735,9 +7725,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -7754,9 +7744,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -7773,9 +7763,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -7792,9 +7782,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -7813,7 +7803,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -7830,23 +7820,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -7856,21 +7846,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -7880,21 +7870,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -7904,21 +7894,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -7929,6 +7919,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -7945,17 +7946,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -7997,23 +7987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -8025,164 +8015,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -8202,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -8227,9 +8217,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -8246,9 +8236,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -8265,9 +8255,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -8284,9 +8274,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -8303,7 +8293,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -8322,7 +8312,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -8341,7 +8331,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -8360,9 +8350,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -8379,9 +8369,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -8398,9 +8388,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -8417,9 +8407,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -8436,7 +8426,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -8455,7 +8445,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -8474,9 +8464,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -8493,9 +8483,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -8512,9 +8502,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -8531,9 +8521,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -8550,9 +8540,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -8569,9 +8559,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -8588,9 +8578,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -8607,9 +8597,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -8626,9 +8616,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -8647,7 +8637,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -8664,23 +8654,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -8690,21 +8680,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -8714,21 +8704,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -8738,21 +8728,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -8763,6 +8753,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -8779,17 +8780,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="11" priority="3">
@@ -8831,23 +8821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -8859,164 +8849,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -9036,7 +9026,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -9061,9 +9051,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -9080,9 +9070,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -9099,9 +9089,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -9118,9 +9108,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -9137,7 +9127,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -9156,7 +9146,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -9175,7 +9165,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -9194,9 +9184,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -9213,9 +9203,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -9232,9 +9222,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -9251,9 +9241,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -9270,7 +9260,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -9289,7 +9279,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -9308,9 +9298,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -9327,9 +9317,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -9346,9 +9336,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -9365,9 +9355,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -9384,9 +9374,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -9403,9 +9393,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -9422,9 +9412,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9441,9 +9431,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9460,9 +9450,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -9481,7 +9471,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -9498,23 +9488,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -9524,21 +9514,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -9548,21 +9538,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -9572,21 +9562,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -9597,6 +9587,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -9613,17 +9614,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -9665,23 +9655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -9693,164 +9683,164 @@
     <row r="2" spans="1:22" ht="16.2" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="101">
+        <v>33</v>
+      </c>
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="102">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>3</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="104"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -9870,7 +9860,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>4</v>
@@ -9895,9 +9885,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -9914,9 +9904,9 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -9933,9 +9923,9 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -9952,9 +9942,9 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -9971,7 +9961,7 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -9990,7 +9980,7 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -10009,7 +9999,7 @@
       <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -10028,9 +10018,9 @@
       <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -10047,9 +10037,9 @@
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -10066,9 +10056,9 @@
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -10085,9 +10075,9 @@
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -10104,7 +10094,7 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +10113,7 @@
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -10142,9 +10132,9 @@
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -10161,9 +10151,9 @@
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -10180,9 +10170,9 @@
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -10199,9 +10189,9 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -10218,9 +10208,9 @@
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -10237,9 +10227,9 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -10256,9 +10246,9 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -10275,9 +10265,9 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -10294,9 +10284,9 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -10315,7 +10305,7 @@
     <row r="33" spans="1:22" ht="15.6" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -10332,23 +10322,23 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="A34" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -10358,21 +10348,21 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="88"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -10382,21 +10372,21 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -10406,21 +10396,21 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -10431,6 +10421,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -10447,17 +10448,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="5" priority="3">
